--- a/Figures/Chapter 2 - Fire/pairwise_adonis_22_same_sheet.xlsx
+++ b/Figures/Chapter 2 - Fire/pairwise_adonis_22_same_sheet.xlsx
@@ -419,7 +419,7 @@
         <v>2.06738655846647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.125</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>3.84735391896983</v>
       </c>
       <c r="E12" t="n">
-        <v>0.045</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="13">
@@ -549,7 +549,7 @@
         <v>0.940385435103108</v>
       </c>
       <c r="E18" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="19">
